--- a/analyse/Business-analysis/Бизнес-план.xlsx
+++ b/analyse/Business-analysis/Бизнес-план.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\za02z\OneDrive\Рабочий стол\Конкурсы\volgaironhack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493BE470-699C-43E2-9C08-EA251433687F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F58973A6-420D-4069-B4EE-ED10D3A4F7E0}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,50 +19,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
-  <si>
-    <t>0.	Рыбаки и охотники</t>
-  </si>
-  <si>
-    <t>2. Компании молодых людей</t>
-  </si>
-  <si>
-    <t>1. Семейные пары</t>
-  </si>
-  <si>
-    <t>3. Люди, отдыхающие в одиночку</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>4. Пожилые люди</t>
   </si>
   <si>
-    <t>5. Дети дошкольного и школьного возраста</t>
-  </si>
-  <si>
-    <t>6. Студенты</t>
-  </si>
-  <si>
-    <t>7. Спортивные секции</t>
-  </si>
-  <si>
     <t>Персонал</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Тренер по охоте и рыбалке</t>
-  </si>
-  <si>
     <t>Цена</t>
   </si>
   <si>
     <t>Стоимость и тип работ</t>
   </si>
   <si>
-    <t>Аниматор</t>
-  </si>
-  <si>
     <t>Игры для детей (скакалки, мячи, настольный тенис, надувные матрасы и т.п.)</t>
   </si>
   <si>
@@ -78,123 +45,71 @@
     <t>Сумма, руб</t>
   </si>
   <si>
-    <t>Новые игровые площадки и атракционны (волейбольное поле, детский городок)</t>
-  </si>
-  <si>
-    <t>Оборудовать места для вечерних «посиделок» у воды</t>
-  </si>
-  <si>
-    <t>Банкетный зал</t>
-  </si>
-  <si>
-    <t>Персонал для зала 2 чел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресла и кресла-мешки, столы </t>
-  </si>
-  <si>
     <t>Дополнительное</t>
   </si>
   <si>
     <t>Бесплатный Wi-Fi</t>
   </si>
   <si>
-    <t>Построить ограждаюшие сооружения, перила</t>
-  </si>
-  <si>
-    <t>5 вожатых</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Флагштоп, игры </t>
-  </si>
-  <si>
     <t>в месяц</t>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Сделать льготы для студентов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Договориться с вузами на летний студенческий отдых</t>
-    </r>
-  </si>
-  <si>
     <t>Инвентарь для спорта</t>
   </si>
   <si>
     <t>Велосипеды</t>
   </si>
   <si>
-    <t>Беговая и вело дорожка на 1км</t>
-  </si>
-  <si>
     <t>Байдарки, каяки, для обучения плаванию</t>
   </si>
   <si>
     <t>Инвентарь для походов</t>
   </si>
   <si>
-    <t>Продуктовый магазин</t>
-  </si>
-  <si>
     <t>Оборудовать места для фотоссесий</t>
   </si>
   <si>
     <t>Новые развлечения (водные лыжи, дайвинг, фотоохота)</t>
+  </si>
+  <si>
+    <t>0.	Рыбаки</t>
+  </si>
+  <si>
+    <t>1. Семейные с детьми</t>
+  </si>
+  <si>
+    <t>2. Люди увлекающиеся спортом и предпочитающие активный отдых</t>
+  </si>
+  <si>
+    <t>3. Компании, корпоративные выезды</t>
+  </si>
+  <si>
+    <t>Флагштоп, настольные игры</t>
+  </si>
+  <si>
+    <t>Новые игровые площадки (волейбольное поле, детский городок)</t>
+  </si>
+  <si>
+    <t>Оборудовать место для баксетбольной площадки(в качетсве примера)</t>
+  </si>
+  <si>
+    <t>Кресла-мешки</t>
+  </si>
+  <si>
+    <t>Оборудовать общественное пространство</t>
+  </si>
+  <si>
+    <t>Обучить персонал интересным рецептам по приготовлению рыбы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,13 +143,6 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -354,6 +262,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,28 +284,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -504,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -698,72 +614,72 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642873BB-8232-426E-B90A-EE39E70D8463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="18">
+        <v>25000</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22">
-        <v>25000</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4"/>
@@ -774,38 +690,42 @@
         <v>0 + 25000/мес</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="1:7">
+      <c r="A4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="10">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="23"/>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="10">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="12">
@@ -813,41 +733,44 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="11"/>
       <c r="F7" s="1"/>
       <c r="G7" s="6" t="str">
         <f>SUM(E5:E6)&amp;" + "&amp;E4&amp;"/мес"</f>
-        <v>265000 + 15000/мес</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>25000 + 50000/мес</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="12">
         <v>50000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23"/>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="13">
@@ -855,10 +778,10 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="C10" t="s">
-        <v>19</v>
+    <row r="10" spans="1:7">
+      <c r="A10" s="23"/>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="13">
@@ -866,9 +789,11 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
       <c r="E11" s="11"/>
@@ -878,24 +803,21 @@
         <v>1050000 + 50000/мес</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
+    <row r="12" spans="1:7">
+      <c r="A12" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="10">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
@@ -903,26 +825,24 @@
       <c r="F13" s="1"/>
       <c r="G13" s="6" t="str">
         <f>SUM(E12)&amp;" + "&amp;0&amp;"/мес"</f>
-        <v>30000 + 0/мес</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>10000 + 0/мес</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E14" s="10">
         <v>100000</v>
       </c>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="24"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
@@ -933,212 +853,139 @@
         <v>100000 + 0/мес</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27"/>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="10">
-        <v>75000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>2500</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="26">
-        <v>10000</v>
-      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="24"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="28"/>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="13">
+        <v>100000</v>
+      </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="6" t="str">
-        <f>SUM(E17)&amp;" + "&amp;E16&amp;"/мес"</f>
-        <v>10000 + 75000/мес</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="10"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="28"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="11"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="6" t="str">
-        <f>SUM(E19)&amp;" + "&amp;0&amp;"/мес"</f>
-        <v>0 + 0/мес</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="22"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="10">
-        <v>1000000</v>
-      </c>
+      <c r="E21" s="10"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
+    <row r="22" spans="1:7">
+      <c r="A22" s="23"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="10">
-        <v>400000</v>
-      </c>
+      <c r="E22" s="10"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
+    <row r="23" spans="1:7">
+      <c r="A23" s="23"/>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="10">
-        <v>10000</v>
-      </c>
+      <c r="E23" s="10"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
+    <row r="24" spans="1:7">
+      <c r="A24" s="23"/>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="10">
-        <v>40000</v>
-      </c>
+      <c r="E24" s="10"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
+    <row r="25" spans="1:7">
+      <c r="A25" s="23"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="10">
-        <v>60000</v>
-      </c>
+      <c r="E25" s="10"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="24"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
       <c r="E26" s="11"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="6" t="str">
-        <f>SUM(E21:E25)&amp;" + "&amp;0&amp;"/мес"</f>
-        <v>1510000 + 0/мес</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="10">
-        <v>500</v>
-      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="22"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="10"/>
       <c r="F27"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
+    <row r="28" spans="1:7">
+      <c r="A28" s="23"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="10">
-        <v>1000000</v>
-      </c>
+      <c r="E28" s="10"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
+    <row r="29" spans="1:7">
+      <c r="A29" s="23"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="13">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="23"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="13">
-        <v>100000</v>
-      </c>
-      <c r="G30" t="str">
-        <f>SUM(E28:E30)&amp;" + "&amp;E27&amp;"/мес"</f>
-        <v>1150000 + 500/мес</v>
-      </c>
+      <c r="E30" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A26"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
